--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/NewToch/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCAC149-BAEE-2544-8929-9CEE536D7D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18144A1-09CE-9E48-9434-A77BB258CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1440" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="2220" yWindow="760" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Affixation" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="748">
   <si>
     <t>Shape</t>
   </si>
@@ -1157,12 +1157,6 @@
     <t>V_ṣtār</t>
   </si>
   <si>
-    <t>I_särki</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>R_sùkātik</t>
   </si>
   <si>
@@ -1328,9 +1322,6 @@
     <t>pause</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>W_zeke</t>
   </si>
   <si>
@@ -1610,9 +1601,6 @@
     <t>V_säl</t>
   </si>
   <si>
-    <t>M_särka</t>
-  </si>
-  <si>
     <t>PREF</t>
   </si>
   <si>
@@ -1706,12 +1694,6 @@
     <t>V_säqă</t>
   </si>
   <si>
-    <t>be.happy</t>
-  </si>
-  <si>
-    <t>be.glad</t>
-  </si>
-  <si>
     <t>V_klop</t>
   </si>
   <si>
@@ -1775,9 +1757,6 @@
     <t>I_lokeṃ</t>
   </si>
   <si>
-    <t>long.ago</t>
-  </si>
-  <si>
     <t>I_kāzekeṃ</t>
   </si>
   <si>
@@ -1787,9 +1766,6 @@
     <t>I_kāze</t>
   </si>
   <si>
-    <t>each.other</t>
-  </si>
-  <si>
     <t>X_ālamwäc</t>
   </si>
   <si>
@@ -1838,12 +1814,6 @@
     <t>I_kāmăr</t>
   </si>
   <si>
-    <t>full.sister</t>
-  </si>
-  <si>
-    <t>full.brother</t>
-  </si>
-  <si>
     <t>C_pracăr</t>
   </si>
   <si>
@@ -2277,6 +2247,39 @@
   </si>
   <si>
     <t>C_śriñkät</t>
+  </si>
+  <si>
+    <t>Kāsäwă</t>
+  </si>
+  <si>
+    <t>Riṣak;Kāsäwă</t>
+  </si>
+  <si>
+    <t>full brother</t>
+  </si>
+  <si>
+    <t>full sister</t>
+  </si>
+  <si>
+    <t>long ago</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>be happy</t>
+  </si>
+  <si>
+    <t>be glad</t>
+  </si>
+  <si>
+    <t>Ṣomă</t>
+  </si>
+  <si>
+    <t>Morpheme_1</t>
+  </si>
+  <si>
+    <t>Morpheme_2</t>
   </si>
 </sst>
 </file>
@@ -2686,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="175" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,30 +2713,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>430</v>
+        <v>746</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>430</v>
+        <v>747</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>430</v>
+        <v>747</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -2761,24 +2764,24 @@
         <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -2789,13 +2792,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -2806,10 +2809,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
@@ -2818,15 +2821,15 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>224</v>
@@ -2857,7 +2860,7 @@
         <v>344</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
@@ -2880,18 +2883,18 @@
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>67</v>
@@ -2902,13 +2905,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>67</v>
@@ -2928,7 +2931,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2961,30 +2964,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>67</v>
@@ -2995,13 +2998,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
@@ -3009,13 +3012,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
@@ -3023,13 +3026,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -3040,33 +3043,33 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>571</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -3080,7 +3083,7 @@
         <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
@@ -3088,13 +3091,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>169</v>
@@ -3116,16 +3119,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3133,7 +3136,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>600</v>
+        <v>740</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>108</v>
@@ -3150,7 +3153,7 @@
         <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>189</v>
@@ -3173,7 +3176,7 @@
         <v>189</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3184,10 +3187,10 @@
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>59</v>
@@ -3201,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
@@ -3223,7 +3226,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,10 +3261,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>75</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
@@ -3290,7 +3293,7 @@
         <v>297</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>298</v>
@@ -3329,21 +3332,21 @@
         <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
@@ -3357,24 +3360,24 @@
         <v>168</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>166</v>
@@ -3383,7 +3386,7 @@
         <v>82</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3400,15 +3403,15 @@
         <v>82</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
@@ -3423,16 +3426,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3449,18 +3452,18 @@
         <v>47</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>47</v>
@@ -3488,13 +3491,13 @@
         <v>326</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3514,13 +3517,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -3528,13 +3531,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>47</v>
@@ -3582,7 +3585,7 @@
         <v>47</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3599,18 +3602,18 @@
         <v>47</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>47</v>
@@ -3630,12 +3633,12 @@
         <v>47</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>170</v>
@@ -3647,15 +3650,15 @@
         <v>47</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>150</v>
@@ -3678,21 +3681,21 @@
         <v>47</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -3700,30 +3703,30 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>47</v>
@@ -3743,18 +3746,18 @@
         <v>47</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>47</v>
@@ -3777,7 +3780,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3794,7 +3797,7 @@
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3811,7 +3814,7 @@
         <v>47</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3828,7 +3831,7 @@
         <v>47</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3845,7 +3848,7 @@
         <v>47</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,10 +3865,10 @@
         <v>47</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3896,18 +3899,18 @@
         <v>47</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>47</v>
@@ -3915,13 +3918,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>47</v>
@@ -3941,7 +3944,7 @@
         <v>47</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3958,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3989,7 +3992,7 @@
         <v>47</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4011,13 +4014,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>74</v>
@@ -4037,7 +4040,7 @@
         <v>47</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4054,18 +4057,18 @@
         <v>47</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>47</v>
@@ -4087,30 +4090,30 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>47</v>
@@ -4130,18 +4133,18 @@
         <v>47</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>47</v>
@@ -4161,18 +4164,18 @@
         <v>47</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>180</v>
@@ -4183,13 +4186,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>47</v>
@@ -4203,7 +4206,7 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>47</v>
@@ -4212,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4223,13 +4226,13 @@
         <v>346</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4240,7 +4243,7 @@
         <v>310</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>47</v>
@@ -4248,27 +4251,27 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>342</v>
@@ -4291,7 +4294,7 @@
         <v>47</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -4325,7 +4328,7 @@
         <v>47</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -4347,13 +4350,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>47</v>
@@ -4361,13 +4364,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>47</v>
@@ -4375,22 +4378,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -4423,13 +4426,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>126</v>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>50</v>
@@ -4457,7 +4460,7 @@
         <v>50</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>161</v>
@@ -4477,18 +4480,18 @@
         <v>161</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>161</v>
@@ -4511,44 +4514,44 @@
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4565,7 +4568,7 @@
         <v>112</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4590,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>112</v>
@@ -4601,13 +4604,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>112</v>
@@ -4618,10 +4621,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>317</v>
@@ -4646,13 +4649,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>112</v>
@@ -4674,7 +4677,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>113</v>
@@ -4686,24 +4689,24 @@
         <v>112</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4725,13 +4728,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>112</v>
@@ -4754,18 +4757,18 @@
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>112</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>229</v>
@@ -4785,7 +4788,7 @@
         <v>112</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -4832,47 +4835,47 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>112</v>
@@ -4880,13 +4883,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>112</v>
@@ -4894,13 +4897,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>112</v>
@@ -4908,13 +4911,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>112</v>
@@ -4922,13 +4925,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>59</v>
@@ -4936,13 +4939,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>59</v>
@@ -4950,13 +4953,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>579</v>
+        <v>741</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>59</v>
@@ -4964,44 +4967,44 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>373</v>
+        <v>614</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>524</v>
+        <v>364</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G144" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>364</v>
+        <v>603</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>59</v>
@@ -5009,13 +5012,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>665</v>
+        <v>530</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>667</v>
+        <v>532</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>666</v>
+        <v>441</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>59</v>
@@ -5023,13 +5026,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>534</v>
+        <v>341</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>59</v>
@@ -5037,75 +5040,75 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>535</v>
+        <v>110</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G149" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>264</v>
+        <v>658</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>110</v>
+        <v>657</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>265</v>
+        <v>656</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>733</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>668</v>
+        <v>368</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>667</v>
+        <v>175</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>666</v>
+        <v>174</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>669</v>
+        <v>188</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>590</v>
-      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>188</v>
@@ -5113,44 +5116,44 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>271</v>
+        <v>576</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>12</v>
+        <v>742</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>188</v>
+        <v>547</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>584</v>
+        <v>303</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>583</v>
+        <v>304</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>132</v>
@@ -5158,46 +5161,49 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>311</v>
+        <v>578</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="G157" s="1" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>586</v>
+        <v>417</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>267</v>
+        <v>418</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D158" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>614</v>
+      <c r="E158" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>420</v>
+        <v>212</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D159" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -5206,13 +5212,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>132</v>
@@ -5223,148 +5229,145 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>418</v>
+        <v>52</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>421</v>
+        <v>53</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>416</v>
+        <v>51</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>98</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>51</v>
+        <v>538</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>277</v>
+        <v>693</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>278</v>
+        <v>695</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>731</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>703</v>
+        <v>272</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>705</v>
+        <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>704</v>
+        <v>142</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>91</v>
+        <v>522</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>526</v>
+        <v>284</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>286</v>
+        <v>579</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>539</v>
+        <v>406</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>21</v>
+        <v>407</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>587</v>
+        <v>408</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>525</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>408</v>
+        <v>42</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>409</v>
+        <v>43</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>25</v>
@@ -5372,13 +5375,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>25</v>
@@ -5386,13 +5389,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>25</v>
@@ -5400,13 +5403,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>403</v>
+        <v>54</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>405</v>
+        <v>56</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>25</v>
@@ -5414,13 +5417,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>25</v>
@@ -5428,13 +5431,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>25</v>
@@ -5442,237 +5445,240 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>20</v>
+        <v>716</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>23</v>
+        <v>529</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>726</v>
+        <v>611</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>6</v>
+        <v>523</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>621</v>
+        <v>686</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>622</v>
+        <v>687</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>527</v>
+        <v>688</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>696</v>
+        <v>488</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>697</v>
+        <v>490</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>698</v>
+        <v>489</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>491</v>
+        <v>162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>493</v>
+        <v>48</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D181" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D182" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G182" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>504</v>
+        <v>200</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>616</v>
+        <v>201</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>76</v>
+        <v>669</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>77</v>
+        <v>670</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>679</v>
+        <v>280</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>680</v>
+        <v>281</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>280</v>
+        <v>708</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>282</v>
+        <v>709</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>718</v>
+        <v>157</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>502</v>
+        <v>156</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>719</v>
+        <v>553</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>157</v>
+        <v>681</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>156</v>
+        <v>682</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>559</v>
+        <v>197</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>691</v>
+        <v>219</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>692</v>
+        <v>221</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>41</v>
@@ -5680,13 +5686,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>208</v>
+        <v>663</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>61</v>
+        <v>374</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>41</v>
@@ -5694,13 +5700,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>41</v>
@@ -5708,13 +5714,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>564</v>
+        <v>393</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>65</v>
+        <v>394</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>41</v>
@@ -5722,13 +5728,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>395</v>
+        <v>182</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>396</v>
+        <v>181</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>41</v>
@@ -5736,27 +5742,27 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>154</v>
@@ -5764,44 +5770,44 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="G199" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>499</v>
+        <v>216</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>500</v>
+        <v>218</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>501</v>
+        <v>217</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>607</v>
-      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>216</v>
+        <v>491</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>218</v>
+        <v>492</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>154</v>
@@ -5809,13 +5815,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>494</v>
+        <v>690</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>495</v>
+        <v>691</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>154</v>
@@ -5823,13 +5829,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>701</v>
+        <v>499</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>228</v>
+        <v>500</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>154</v>
@@ -5837,13 +5843,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>154</v>
@@ -5851,13 +5857,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>498</v>
+        <v>184</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>497</v>
+        <v>186</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>154</v>
@@ -5865,13 +5871,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>154</v>
@@ -5879,13 +5885,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>333</v>
+        <v>724</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>335</v>
+        <v>725</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>334</v>
+        <v>726</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>154</v>
@@ -5893,13 +5899,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>734</v>
+        <v>328</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>735</v>
+        <v>329</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>736</v>
+        <v>325</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>154</v>
@@ -5907,13 +5913,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>154</v>
@@ -5921,13 +5927,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>154</v>
@@ -5935,13 +5941,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>339</v>
+        <v>706</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>49</v>
+        <v>705</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>340</v>
+        <v>704</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>154</v>
@@ -5949,27 +5955,27 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>716</v>
+        <v>589</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>715</v>
+        <v>590</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>714</v>
+        <v>591</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>597</v>
+        <v>179</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>598</v>
+        <v>178</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>599</v>
+        <v>177</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>172</v>
@@ -5977,13 +5983,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>179</v>
+        <v>502</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>178</v>
+        <v>490</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>177</v>
+        <v>489</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>172</v>
@@ -5991,13 +5997,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>505</v>
+        <v>680</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>493</v>
+        <v>679</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>492</v>
+        <v>678</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>172</v>
@@ -6005,13 +6011,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>690</v>
+        <v>256</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>689</v>
+        <v>257</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>688</v>
+        <v>258</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>172</v>
@@ -6019,13 +6025,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>256</v>
+        <v>664</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>257</v>
+        <v>665</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>258</v>
+        <v>666</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>172</v>
@@ -6033,13 +6039,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>674</v>
+        <v>595</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>676</v>
+        <v>122</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>172</v>
@@ -6047,13 +6053,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>606</v>
+        <v>171</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>122</v>
+        <v>559</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>172</v>
@@ -6061,13 +6067,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>567</v>
+        <v>203</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>565</v>
+        <v>204</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>172</v>
@@ -6075,279 +6081,282 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>203</v>
+        <v>599</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D221" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D222" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>610</v>
+        <v>70</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>338</v>
+        <v>60</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>60</v>
+        <v>584</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>196</v>
+        <v>370</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>592</v>
+        <v>369</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>195</v>
+        <v>533</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>370</v>
+        <v>151</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>537</v>
+        <v>150</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>151</v>
+        <v>503</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>508</v>
+        <v>376</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>423</v>
+        <v>174</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>174</v>
+        <v>548</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>593</v>
+        <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>594</v>
+        <v>22</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>595</v>
+        <v>4</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>4</v>
+        <v>524</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D235" s="1" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G237" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>250</v>
+        <v>509</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>251</v>
+        <v>492</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>512</v>
+        <v>292</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>495</v>
+        <v>293</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>293</v>
+        <v>508</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>115</v>
@@ -6355,13 +6364,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>279</v>
+        <v>510</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>511</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>115</v>
@@ -6369,13 +6378,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>513</v>
+        <v>114</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>514</v>
+        <v>117</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>115</v>
@@ -6383,13 +6392,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>117</v>
+        <v>641</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>115</v>
@@ -6397,13 +6406,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>650</v>
+        <v>347</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>651</v>
+        <v>348</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>115</v>
@@ -6411,13 +6420,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>347</v>
+        <v>536</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>115</v>
@@ -6425,27 +6434,27 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>540</v>
+        <v>701</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>514</v>
+        <v>702</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>268</v>
+        <v>703</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>711</v>
+        <v>131</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>712</v>
+        <v>130</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>713</v>
+        <v>129</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>35</v>
@@ -6453,13 +6462,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>35</v>
@@ -6467,13 +6476,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>123</v>
+        <v>486</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>35</v>
@@ -6481,13 +6490,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>165</v>
+        <v>516</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>35</v>
@@ -6495,13 +6504,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>519</v>
+        <v>394</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>520</v>
+        <v>28</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>35</v>
@@ -6509,13 +6518,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>28</v>
+        <v>520</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>35</v>
@@ -6523,13 +6532,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>35</v>
@@ -6537,13 +6546,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>166</v>
+        <v>525</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>35</v>
@@ -6551,13 +6560,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>33</v>
+        <v>685</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>34</v>
+        <v>683</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>529</v>
+        <v>684</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
@@ -6565,13 +6574,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>693</v>
+        <v>499</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>35</v>
@@ -6579,13 +6588,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>502</v>
+        <v>654</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>35</v>
@@ -6593,13 +6602,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>662</v>
+        <v>337</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>35</v>
@@ -6607,117 +6616,103 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>648</v>
+        <v>540</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>649</v>
+        <v>541</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>337</v>
+        <v>542</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>35</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="D260" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>548</v>
+        <v>743</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>555</v>
+        <v>651</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>556</v>
+        <v>744</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>376</v>
+        <v>652</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>661</v>
+        <v>527</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>662</v>
+        <v>321</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>538</v>
+        <v>243</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>531</v>
+        <v>699</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>532</v>
+        <v>696</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>321</v>
+        <v>697</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>3</v>
+        <v>698</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-    <sortCondition ref="D239:D265"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G264">
+    <sortCondition ref="D238:D264"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18144A1-09CE-9E48-9434-A77BB258CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6088E-22E1-104F-9FC4-88008A71E97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="760" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="745">
   <si>
     <t>Shape</t>
   </si>
@@ -599,9 +599,6 @@
     <t>V_täp</t>
   </si>
   <si>
-    <t>voice</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -998,9 +995,6 @@
     <t>M_warpiśke</t>
   </si>
   <si>
-    <t>M_waśeṃ</t>
-  </si>
-  <si>
     <t>W_waṣtă</t>
   </si>
   <si>
@@ -1647,9 +1641,6 @@
   </si>
   <si>
     <t>R_yokeyu</t>
-  </si>
-  <si>
-    <t>M_wag</t>
   </si>
   <si>
     <t>D_ag</t>
@@ -2689,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2713,30 +2704,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -2758,30 +2749,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -2792,13 +2783,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -2809,10 +2800,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
@@ -2821,18 +2812,18 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>67</v>
@@ -2840,13 +2831,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
@@ -2854,13 +2845,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
@@ -2871,30 +2862,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>67</v>
@@ -2905,13 +2896,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>67</v>
@@ -2931,7 +2922,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2964,30 +2955,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>67</v>
@@ -2998,13 +2989,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
@@ -3012,13 +3003,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
@@ -3026,13 +3017,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -3043,33 +3034,33 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -3077,13 +3068,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
@@ -3091,13 +3082,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>169</v>
@@ -3105,13 +3096,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>169</v>
@@ -3119,16 +3110,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3136,7 +3127,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>108</v>
@@ -3147,112 +3138,110 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>537</v>
+        <v>315</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>318</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>316</v>
+        <v>543</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>583</v>
+        <v>536</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>546</v>
+        <v>407</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>365</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="2"/>
+      <c r="G32" s="1" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1" t="s">
-        <v>715</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>82</v>
@@ -3261,42 +3250,42 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>412</v>
+        <v>686</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>689</v>
+        <v>296</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>82</v>
@@ -3305,165 +3294,164 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>360</v>
+        <v>615</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>361</v>
+        <v>616</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>362</v>
+        <v>617</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>710</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>618</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>619</v>
+        <v>168</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>620</v>
+        <v>409</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>664</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>168</v>
+        <v>665</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>411</v>
+        <v>166</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>667</v>
+        <v>352</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>668</v>
+        <v>322</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F43" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>562</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>354</v>
+        <v>728</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>722</v>
-      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>725</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>269</v>
+        <v>726</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>727</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>727</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>728</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>729</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>730</v>
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>448</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>450</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>637</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>451</v>
+        <v>190</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>452</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>47</v>
@@ -3471,59 +3459,59 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>190</v>
+        <v>323</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F49" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>453</v>
+        <v>657</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>454</v>
+        <v>658</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>455</v>
+        <v>659</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -3531,13 +3519,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>660</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>661</v>
+        <v>261</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>662</v>
+        <v>260</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>47</v>
@@ -3545,13 +3533,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>47</v>
@@ -3559,358 +3547,358 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F55" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>580</v>
+      <c r="F56" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>641</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>642</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>643</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>645</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>556</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>580</v>
+      <c r="F59" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>559</v>
+        <v>422</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>424</v>
+        <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>433</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>432</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>435</v>
+        <v>550</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>436</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>434</v>
+        <v>549</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>553</v>
+        <v>445</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>447</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D64" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>447</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>449</v>
+        <v>138</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>672</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>673</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>139</v>
+        <v>674</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>563</v>
+      <c r="F66" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>675</v>
+        <v>241</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>676</v>
+        <v>243</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>677</v>
+        <v>242</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>9</v>
+      <c r="F67" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>580</v>
+      <c r="G70" s="1" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>712</v>
+      <c r="F71" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>671</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F74" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>47</v>
@@ -3918,157 +3906,157 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>432</v>
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F77" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F80" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>580</v>
+      <c r="F81" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>644</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>289</v>
+        <v>645</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>287</v>
+        <v>492</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>647</v>
+        <v>421</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>648</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>494</v>
+        <v>28</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F83" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>423</v>
+        <v>293</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>296</v>
+        <v>442</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>295</v>
+        <v>441</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>47</v>
@@ -4076,109 +4064,109 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G87" s="1" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>562</v>
-      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F89" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>395</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>396</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F91" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>47</v>
@@ -4186,177 +4174,177 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>441</v>
+        <v>545</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>562</v>
+      <c r="F95" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>549</v>
+        <v>431</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>309</v>
+        <v>697</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G97" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>700</v>
+        <v>435</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>438</v>
+        <v>266</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F99" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>580</v>
+      <c r="F100" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>2</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>582</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>268</v>
+        <v>444</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>269</v>
+        <v>443</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>445</v>
+        <v>553</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>47</v>
@@ -4364,47 +4352,47 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>556</v>
+        <v>381</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F105" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>382</v>
+        <v>87</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>384</v>
+        <v>88</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>383</v>
+        <v>86</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>707</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>126</v>
@@ -4412,13 +4400,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>612</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>140</v>
+        <v>613</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>89</v>
+        <v>614</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
@@ -4426,27 +4414,27 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>615</v>
+        <v>455</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>616</v>
+        <v>50</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>617</v>
+        <v>304</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>305</v>
+        <v>454</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>161</v>
@@ -4454,146 +4442,149 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>327</v>
+        <v>158</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D111" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>161</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>158</v>
+        <v>563</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>566</v>
+        <v>274</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>567</v>
+        <v>273</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D113" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>161</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>456</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>457</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>2</v>
+      <c r="F114" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>458</v>
+        <v>618</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>459</v>
+        <v>619</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>460</v>
+        <v>621</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>643</v>
+        <v>112</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>621</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>622</v>
+        <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>624</v>
+        <v>119</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>623</v>
+      <c r="G116" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>711</v>
-      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F118" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>315</v>
+        <v>479</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>112</v>
@@ -4604,30 +4595,27 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>479</v>
+        <v>349</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>112</v>
@@ -4635,13 +4623,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>351</v>
+        <v>551</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>352</v>
+        <v>552</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>93</v>
+        <v>567</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>112</v>
@@ -4649,13 +4637,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>554</v>
+        <v>208</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>555</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>570</v>
+        <v>209</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>112</v>
@@ -4663,143 +4651,143 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>209</v>
+        <v>591</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F124" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>594</v>
+        <v>462</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>113</v>
+        <v>427</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>111</v>
+        <v>463</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>580</v>
+      <c r="G125" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>464</v>
+        <v>147</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>429</v>
+        <v>148</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>465</v>
+        <v>146</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>562</v>
+      <c r="F126" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>147</v>
+        <v>467</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>148</v>
+        <v>468</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>469</v>
+        <v>145</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>471</v>
+        <v>143</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>145</v>
+        <v>464</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>144</v>
+        <v>465</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>143</v>
+        <v>466</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>467</v>
+        <v>228</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>468</v>
+        <v>216</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="G130" s="1" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>472</v>
+        <v>239</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>605</v>
-      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>112</v>
@@ -4807,13 +4795,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>112</v>
@@ -4821,61 +4809,61 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F134" s="2" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D136" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>463</v>
+        <v>732</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>112</v>
@@ -4883,27 +4871,27 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>735</v>
+        <v>471</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D138" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>474</v>
+        <v>623</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>112</v>
@@ -4911,27 +4899,27 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>672</v>
+        <v>570</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>673</v>
+        <v>571</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>674</v>
+        <v>572</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>59</v>
@@ -4939,13 +4927,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>574</v>
+        <v>738</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>59</v>
@@ -4953,44 +4941,44 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>741</v>
+        <v>363</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>571</v>
+        <v>362</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G143" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>365</v>
+        <v>599</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>364</v>
+        <v>600</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>565</v>
-      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>59</v>
@@ -4998,13 +4986,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>655</v>
+        <v>528</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>657</v>
+        <v>530</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>656</v>
+        <v>439</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>59</v>
@@ -5012,13 +5000,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>530</v>
+        <v>339</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>59</v>
@@ -5026,120 +5014,120 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>531</v>
+        <v>110</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G148" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>264</v>
+        <v>655</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>265</v>
+        <v>653</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>658</v>
+        <v>366</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>657</v>
+        <v>175</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>656</v>
+        <v>174</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>659</v>
+        <v>187</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>582</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>271</v>
+        <v>573</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>12</v>
+        <v>739</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>188</v>
+        <v>544</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>576</v>
+        <v>302</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>742</v>
+        <v>303</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>132</v>
@@ -5147,46 +5135,49 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>311</v>
+        <v>575</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="G156" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>578</v>
+        <v>415</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D157" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>604</v>
+      <c r="E157" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -5195,13 +5186,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>56</v>
+        <v>412</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>132</v>
@@ -5212,148 +5203,145 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>419</v>
+        <v>53</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>414</v>
+        <v>51</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>98</v>
+        <v>519</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>51</v>
+        <v>535</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>277</v>
+        <v>690</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>278</v>
+        <v>692</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>538</v>
+        <v>691</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>721</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>693</v>
+        <v>271</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>695</v>
+        <v>272</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>694</v>
+        <v>142</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>91</v>
+        <v>520</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>522</v>
+        <v>283</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>284</v>
+        <v>533</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>286</v>
+        <v>576</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>579</v>
+        <v>406</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>521</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>25</v>
@@ -5361,13 +5349,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>25</v>
@@ -5375,13 +5363,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>139</v>
+        <v>401</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>25</v>
@@ -5389,13 +5377,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>401</v>
+        <v>54</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>403</v>
+        <v>56</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>25</v>
@@ -5403,13 +5391,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>25</v>
@@ -5417,27 +5405,30 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G174" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>25</v>
@@ -5445,41 +5436,41 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>20</v>
+        <v>713</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>25</v>
+        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>716</v>
+        <v>608</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>6</v>
+        <v>521</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>717</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>523</v>
+        <v>685</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>41</v>
@@ -5487,13 +5478,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>686</v>
+        <v>486</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>687</v>
+        <v>488</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>688</v>
+        <v>487</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>41</v>
@@ -5501,58 +5492,58 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>488</v>
+        <v>162</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D180" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>162</v>
+        <v>499</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D181" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>501</v>
+        <v>199</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>606</v>
+        <v>200</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>41</v>
@@ -5560,13 +5551,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>41</v>
@@ -5574,13 +5565,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>77</v>
+        <v>667</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>41</v>
@@ -5588,13 +5579,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>669</v>
+        <v>279</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>670</v>
+        <v>280</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>41</v>
@@ -5602,13 +5593,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>280</v>
+        <v>705</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>281</v>
+        <v>497</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>282</v>
+        <v>706</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
@@ -5616,13 +5607,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>708</v>
+        <v>157</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>499</v>
+        <v>156</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>709</v>
+        <v>550</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>41</v>
@@ -5630,13 +5621,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>157</v>
+        <v>678</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>156</v>
+        <v>679</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>553</v>
+        <v>196</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>41</v>
@@ -5644,13 +5635,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>681</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>682</v>
+        <v>220</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>41</v>
@@ -5658,13 +5649,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>41</v>
@@ -5672,13 +5663,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>208</v>
+        <v>660</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>117</v>
+        <v>377</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>41</v>
@@ -5686,13 +5677,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>663</v>
+        <v>555</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>379</v>
+        <v>65</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>41</v>
@@ -5700,13 +5691,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>558</v>
+        <v>391</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>65</v>
+        <v>392</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>41</v>
@@ -5714,13 +5705,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>393</v>
+        <v>182</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>394</v>
+        <v>181</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>391</v>
+        <v>183</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>41</v>
@@ -5728,27 +5719,27 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>154</v>
@@ -5756,44 +5747,44 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="G198" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>496</v>
+        <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>497</v>
+        <v>217</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>498</v>
+        <v>216</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>218</v>
+        <v>490</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>154</v>
@@ -5801,13 +5792,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>491</v>
+        <v>687</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>492</v>
+        <v>688</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>154</v>
@@ -5815,13 +5806,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>691</v>
+        <v>497</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>228</v>
+        <v>498</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>154</v>
@@ -5829,13 +5820,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>692</v>
+        <v>491</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>154</v>
@@ -5843,13 +5834,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>493</v>
+        <v>185</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>495</v>
+        <v>184</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>494</v>
+        <v>186</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>154</v>
@@ -5857,13 +5848,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>154</v>
@@ -5871,13 +5862,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>333</v>
+        <v>721</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>335</v>
+        <v>722</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>334</v>
+        <v>723</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>154</v>
@@ -5885,13 +5876,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>724</v>
+        <v>326</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>725</v>
+        <v>327</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>726</v>
+        <v>323</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>154</v>
@@ -5899,13 +5890,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>154</v>
@@ -5913,13 +5904,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>154</v>
@@ -5927,13 +5918,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>339</v>
+        <v>703</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>49</v>
+        <v>702</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>340</v>
+        <v>701</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>154</v>
@@ -5941,27 +5932,27 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>706</v>
+        <v>586</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>705</v>
+        <v>587</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>704</v>
+        <v>588</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>589</v>
+        <v>179</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>590</v>
+        <v>178</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>591</v>
+        <v>177</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>172</v>
@@ -5969,13 +5960,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>179</v>
+        <v>500</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>178</v>
+        <v>488</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>177</v>
+        <v>487</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>172</v>
@@ -5983,13 +5974,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>502</v>
+        <v>677</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>490</v>
+        <v>676</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>489</v>
+        <v>675</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>172</v>
@@ -5997,13 +5988,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>680</v>
+        <v>255</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>679</v>
+        <v>256</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>678</v>
+        <v>257</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>172</v>
@@ -6011,13 +6002,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>256</v>
+        <v>661</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>257</v>
+        <v>662</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>258</v>
+        <v>663</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>172</v>
@@ -6025,13 +6016,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>664</v>
+        <v>592</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>666</v>
+        <v>122</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>172</v>
@@ -6039,13 +6030,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>596</v>
+        <v>171</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>122</v>
+        <v>556</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>172</v>
@@ -6053,13 +6044,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>561</v>
+        <v>202</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>559</v>
+        <v>203</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>172</v>
@@ -6067,69 +6058,69 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>203</v>
+        <v>596</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D220" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D221" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>338</v>
+        <v>60</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>60</v>
+        <v>581</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>584</v>
+        <v>367</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>195</v>
+        <v>531</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>26</v>
@@ -6137,13 +6128,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>370</v>
+        <v>151</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>26</v>
@@ -6151,13 +6142,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>149</v>
+        <v>490</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>26</v>
@@ -6165,13 +6156,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="C227" s="1" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>26</v>
@@ -6179,13 +6170,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>504</v>
+        <v>373</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>505</v>
+        <v>374</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>421</v>
+        <v>174</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>26</v>
@@ -6193,13 +6184,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>174</v>
+        <v>545</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>26</v>
@@ -6207,13 +6198,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>26</v>
@@ -6221,13 +6212,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>586</v>
+        <v>22</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>587</v>
+        <v>4</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>26</v>
@@ -6235,13 +6226,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>26</v>
@@ -6249,86 +6240,86 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>355</v>
+        <v>510</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>356</v>
+        <v>512</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>512</v>
+        <v>120</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>514</v>
+        <v>121</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>513</v>
+        <v>119</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>120</v>
+        <v>361</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="G236" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>251</v>
+        <v>490</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>745</v>
-      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>509</v>
+        <v>291</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>115</v>
@@ -6336,13 +6327,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>293</v>
+        <v>506</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>115</v>
@@ -6350,13 +6341,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>279</v>
+        <v>508</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>115</v>
@@ -6364,13 +6355,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>510</v>
+        <v>114</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>511</v>
+        <v>117</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>115</v>
@@ -6378,13 +6369,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>114</v>
+        <v>637</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>117</v>
+        <v>638</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>115</v>
@@ -6392,13 +6383,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>640</v>
+        <v>345</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>641</v>
+        <v>346</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>115</v>
@@ -6406,13 +6397,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>347</v>
+        <v>534</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>348</v>
+        <v>509</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>115</v>
@@ -6420,27 +6411,27 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>536</v>
+        <v>698</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>511</v>
+        <v>699</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>268</v>
+        <v>700</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>701</v>
+        <v>131</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>702</v>
+        <v>130</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>703</v>
+        <v>129</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>35</v>
@@ -6448,13 +6439,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>35</v>
@@ -6462,13 +6453,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>123</v>
+        <v>484</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>35</v>
@@ -6476,13 +6467,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>165</v>
+        <v>514</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>135</v>
+        <v>515</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>35</v>
@@ -6490,13 +6481,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>516</v>
+        <v>392</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>517</v>
+        <v>28</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>35</v>
@@ -6504,13 +6495,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>28</v>
+        <v>518</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>35</v>
@@ -6518,13 +6509,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>518</v>
+        <v>163</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>519</v>
+        <v>164</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>520</v>
+        <v>166</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>35</v>
@@ -6532,13 +6523,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>166</v>
+        <v>523</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>35</v>
@@ -6546,13 +6537,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>33</v>
+        <v>682</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>34</v>
+        <v>680</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>525</v>
+        <v>681</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>35</v>
@@ -6560,13 +6551,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>685</v>
+        <v>646</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>683</v>
+        <v>497</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>684</v>
+        <v>647</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
@@ -6574,13 +6565,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>35</v>
@@ -6588,13 +6579,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>652</v>
+        <v>335</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>35</v>
@@ -6602,16 +6593,16 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>638</v>
+        <v>537</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>639</v>
+        <v>538</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>337</v>
+        <v>539</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>35</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6625,94 +6616,80 @@
         <v>542</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>544</v>
+        <v>740</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>545</v>
+        <v>372</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>374</v>
+        <v>649</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>651</v>
+        <v>525</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>744</v>
+        <v>526</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>652</v>
+        <v>319</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>534</v>
+        <v>242</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>527</v>
+        <v>696</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>528</v>
+        <v>693</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>321</v>
+        <v>694</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>3</v>
+        <v>695</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G264">
-    <sortCondition ref="D238:D264"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G263">
+    <sortCondition ref="D237:D263"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6088E-22E1-104F-9FC4-88008A71E97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04604D-BF2C-6E45-9B48-E5AD5EFFEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="760" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="720" yWindow="7220" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Affixation" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="754">
   <si>
     <t>Shape</t>
   </si>
@@ -1958,9 +1958,6 @@
     <t>Wram</t>
   </si>
   <si>
-    <t xml:space="preserve">Prār </t>
-  </si>
-  <si>
     <t>W_krase</t>
   </si>
   <si>
@@ -2271,6 +2268,36 @@
   </si>
   <si>
     <t>Morpheme_2</t>
+  </si>
+  <si>
+    <t>Prār;Kṣur</t>
+  </si>
+  <si>
+    <t>I_ynālek</t>
+  </si>
+  <si>
+    <t>elsewhere</t>
+  </si>
+  <si>
+    <t>W_wrassi</t>
+  </si>
+  <si>
+    <t>R_waro</t>
+  </si>
+  <si>
+    <t>stinky</t>
+  </si>
+  <si>
+    <t>R_warom</t>
+  </si>
+  <si>
+    <t>M_walāṃ</t>
+  </si>
+  <si>
+    <t>tent?</t>
+  </si>
+  <si>
+    <t>V_vāl</t>
   </si>
 </sst>
 </file>
@@ -2680,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G263"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2704,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>744</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>578</v>
@@ -2721,7 +2748,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
@@ -2955,13 +2982,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
@@ -3046,7 +3073,7 @@
         <v>585</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3074,7 +3101,7 @@
         <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
@@ -3082,13 +3109,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>169</v>
@@ -3113,7 +3140,7 @@
         <v>590</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
@@ -3127,7 +3154,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>108</v>
@@ -3200,7 +3227,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3250,7 +3277,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -3309,7 +3336,7 @@
         <v>577</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3348,10 +3375,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
@@ -3380,12 +3407,12 @@
         <v>577</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
@@ -3400,16 +3427,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3505,13 +3532,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -3581,13 +3608,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>47</v>
@@ -3725,13 +3752,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>47</v>
@@ -3805,7 +3832,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3842,7 +3869,7 @@
         <v>577</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3988,10 +4015,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>492</v>
@@ -4225,7 +4252,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>472</v>
@@ -4367,7 +4394,7 @@
         <v>577</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4508,7 +4535,7 @@
         <v>577</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4542,7 +4569,7 @@
         <v>112</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4857,7 +4884,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>473</v>
@@ -4899,13 +4926,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>59</v>
@@ -4930,7 +4957,7 @@
         <v>569</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>568</v>
@@ -4972,13 +4999,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>59</v>
@@ -5026,21 +5053,21 @@
         <v>59</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5093,7 +5120,7 @@
         <v>573</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>62</v>
@@ -5229,18 +5256,18 @@
         <v>519</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>519</v>
@@ -5417,7 +5444,7 @@
         <v>25</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5436,7 +5463,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>527</v>
@@ -5445,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5464,13 +5491,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>41</v>
@@ -5518,7 +5545,7 @@
         <v>41</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5565,10 +5592,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>73</v>
@@ -5593,13 +5620,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
@@ -5621,10 +5648,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>196</v>
@@ -5663,7 +5690,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>377</v>
@@ -5759,7 +5786,7 @@
         <v>154</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5792,10 +5819,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>227</v>
@@ -5806,7 +5833,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>497</v>
@@ -5862,13 +5889,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>154</v>
@@ -5918,13 +5945,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>154</v>
@@ -5974,13 +6001,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>172</v>
@@ -6002,13 +6029,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>172</v>
@@ -6294,7 +6321,7 @@
         <v>115</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -6411,13 +6438,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>35</v>
@@ -6537,13 +6564,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>35</v>
@@ -6551,13 +6578,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
@@ -6565,13 +6592,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="C256" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>35</v>
@@ -6624,7 +6651,7 @@
         <v>548</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>372</v>
@@ -6635,13 +6662,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>532</v>
@@ -6672,19 +6699,89 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="G263" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04604D-BF2C-6E45-9B48-E5AD5EFFEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8424CA6-B732-CD42-B239-671D48B44F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="7220" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="754">
   <si>
     <t>Shape</t>
   </si>
@@ -2709,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
   <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,6 +3041,9 @@
       <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8424CA6-B732-CD42-B239-671D48B44F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABEFA8-DDD4-7D43-A4AE-C11584F72545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="7220" windowWidth="25700" windowHeight="13080" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Affixation" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="768">
   <si>
     <t>Shape</t>
   </si>
@@ -740,9 +740,6 @@
     <t>M_protäk</t>
   </si>
   <si>
-    <t>V_plāk</t>
-  </si>
-  <si>
     <t>W_plākäm</t>
   </si>
   <si>
@@ -1670,634 +1667,679 @@
     <t>R_p</t>
   </si>
   <si>
+    <t>V_v`les</t>
+  </si>
+  <si>
+    <t>V_v`ras</t>
+  </si>
+  <si>
+    <t>K_v`är</t>
+  </si>
+  <si>
+    <t>V_säqă</t>
+  </si>
+  <si>
+    <t>V_klop</t>
+  </si>
+  <si>
+    <t>W_klop</t>
+  </si>
+  <si>
+    <t>M_pärśari</t>
+  </si>
+  <si>
+    <t>wrinkle</t>
+  </si>
+  <si>
+    <t>V_zäyg</t>
+  </si>
+  <si>
+    <t>potter</t>
+  </si>
+  <si>
+    <t>Q_śolassu</t>
+  </si>
+  <si>
+    <t>W_klyu</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q_kälywāz</t>
+  </si>
+  <si>
+    <t>Kñuk</t>
+  </si>
+  <si>
+    <t>Pälzäk</t>
+  </si>
+  <si>
+    <t>Lānt</t>
+  </si>
+  <si>
+    <t>Riṣak</t>
+  </si>
+  <si>
+    <t>W_semśu</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>watcher</t>
+  </si>
+  <si>
+    <t>S_lyāk</t>
+  </si>
+  <si>
+    <t>Q_päśră</t>
+  </si>
+  <si>
+    <t>I_lokă</t>
+  </si>
+  <si>
+    <t>I_lokeṃ</t>
+  </si>
+  <si>
+    <t>I_kāzekeṃ</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>I_kāze</t>
+  </si>
+  <si>
+    <t>X_ālamwäc</t>
+  </si>
+  <si>
+    <t>S_kāpñe</t>
+  </si>
+  <si>
+    <t>W_yetwe</t>
+  </si>
+  <si>
+    <t>W_käλme</t>
+  </si>
+  <si>
+    <t>n?</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m?</t>
+  </si>
+  <si>
+    <t>roaring</t>
+  </si>
+  <si>
+    <t>R_kaśśi</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>W_kaṣt</t>
+  </si>
+  <si>
+    <t>ANIM2</t>
+  </si>
+  <si>
+    <t>Q_kāmärwāz</t>
+  </si>
+  <si>
+    <t>endowed</t>
+  </si>
+  <si>
+    <t>I_kāmăr</t>
+  </si>
+  <si>
+    <t>C_pracăr</t>
+  </si>
+  <si>
+    <t>C_kāzpracar</t>
+  </si>
+  <si>
+    <t>M_kärkṣiṃ</t>
+  </si>
+  <si>
+    <t>Q_käryezwāz</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>Ywār</t>
+  </si>
+  <si>
+    <t>Kñuk;Pälzäk</t>
+  </si>
+  <si>
+    <t>Q_tampewāz</t>
+  </si>
+  <si>
+    <t>Q_wärcezwāz</t>
+  </si>
+  <si>
+    <t>I_ṣleṃ</t>
+  </si>
+  <si>
+    <t>uphill</t>
+  </si>
+  <si>
+    <t>M_ṣula</t>
+  </si>
+  <si>
+    <t>Indri</t>
+  </si>
+  <si>
+    <t>Asurā</t>
+  </si>
+  <si>
+    <t>V_läq</t>
+  </si>
+  <si>
+    <t>S_amokäz</t>
+  </si>
+  <si>
+    <t>W_amok</t>
+  </si>
+  <si>
+    <t>S_ṣñaṣṣe</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>Q_ṣñassu</t>
+  </si>
+  <si>
+    <t>cupid</t>
+  </si>
+  <si>
+    <t>S_zek</t>
+  </si>
+  <si>
+    <t>I_śpālmeṃ</t>
+  </si>
+  <si>
+    <t>W_wmānt</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>V_wäm</t>
+  </si>
+  <si>
+    <t>W_sepal</t>
+  </si>
+  <si>
+    <t>ointment</t>
+  </si>
+  <si>
+    <t>V_säyp</t>
+  </si>
+  <si>
+    <t>M_pokeṃ</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>f?</t>
+  </si>
+  <si>
+    <t>D_poke</t>
+  </si>
+  <si>
+    <t>M_prāriṃ</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>W_prār</t>
+  </si>
+  <si>
+    <t>S_waco</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>W_wacă</t>
+  </si>
+  <si>
+    <t>S_sāntkenu</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>W_sāntäkă</t>
+  </si>
+  <si>
+    <t>M_yokmă</t>
+  </si>
+  <si>
+    <t>gate-keepr</t>
+  </si>
+  <si>
+    <t>S_yokmenu</t>
+  </si>
+  <si>
+    <t>Omälă</t>
+  </si>
+  <si>
+    <t>Q_wärceznu</t>
+  </si>
+  <si>
+    <t>deficient</t>
+  </si>
+  <si>
+    <t>R_wsi</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>Wram</t>
+  </si>
+  <si>
+    <t>W_krase</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>V_gärs</t>
+  </si>
+  <si>
+    <t>W_rote</t>
+  </si>
+  <si>
+    <t>paints</t>
+  </si>
+  <si>
+    <t>R_śāñinu</t>
+  </si>
+  <si>
+    <t>W_śāñi</t>
+  </si>
+  <si>
+    <t>V_wañi</t>
+  </si>
+  <si>
+    <t>W_wañi</t>
+  </si>
+  <si>
+    <t>R_wañinu</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>I_letkār</t>
+  </si>
+  <si>
+    <t>V_läytk</t>
+  </si>
+  <si>
+    <t>separately</t>
+  </si>
+  <si>
+    <t>I_letäk</t>
+  </si>
+  <si>
+    <t>INDECL2</t>
+  </si>
+  <si>
+    <t>W_omlyi</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Q_omälă</t>
+  </si>
+  <si>
+    <t>Q_sᵤkassu</t>
+  </si>
+  <si>
+    <t>Q_āmānwāz</t>
+  </si>
+  <si>
+    <t>arrogant</t>
+  </si>
+  <si>
+    <t>W_āmān</t>
+  </si>
+  <si>
+    <t>W_cämpäl</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>Q_enzassu</t>
+  </si>
+  <si>
+    <t>greedy?</t>
+  </si>
+  <si>
+    <t>Pälzäk;Kñuk</t>
+  </si>
+  <si>
+    <t>I_kārmeṃ</t>
+  </si>
+  <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>I_kārme</t>
+  </si>
+  <si>
+    <t>W_lake</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>V_läk</t>
+  </si>
+  <si>
+    <t>V_mänt</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>Q_māntälwāz</t>
+  </si>
+  <si>
+    <t>Q_nākmasu</t>
+  </si>
+  <si>
+    <t>reproachable</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>W_orkäm</t>
+  </si>
+  <si>
+    <t>R_orkämnu</t>
+  </si>
+  <si>
+    <t>Q_pkäm</t>
+  </si>
+  <si>
+    <t>digesting</t>
+  </si>
+  <si>
+    <t>K_bäk</t>
+  </si>
+  <si>
+    <t>W_potal</t>
+  </si>
+  <si>
+    <t>Q_potarṣke</t>
+  </si>
+  <si>
+    <t>flattering</t>
+  </si>
+  <si>
+    <t>Q_proṣam</t>
+  </si>
+  <si>
+    <t>I_ysalu</t>
+  </si>
+  <si>
+    <t>I_salu</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>unlawfullness</t>
+  </si>
+  <si>
+    <t>sne</t>
+  </si>
+  <si>
+    <t>W_păl</t>
+  </si>
+  <si>
+    <t>I_snepal</t>
+  </si>
+  <si>
+    <t>W_wras</t>
+  </si>
+  <si>
+    <t>R_yoṣmoṣnu</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>I_yoṣmoṣ</t>
+  </si>
+  <si>
+    <t>W_yog</t>
+  </si>
+  <si>
+    <t>hairy</t>
+  </si>
+  <si>
+    <t>Q_yokäz</t>
+  </si>
+  <si>
+    <t>Pälzäk;Kalpă</t>
+  </si>
+  <si>
+    <t>Q_kipsu</t>
+  </si>
+  <si>
+    <t>W_kip</t>
+  </si>
+  <si>
+    <t>Pälzäk;Kṣur</t>
+  </si>
+  <si>
+    <t>Anăpr</t>
+  </si>
+  <si>
+    <t>Ṣurmă</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>P_änzaṃ</t>
+  </si>
+  <si>
+    <t>Sewā</t>
+  </si>
+  <si>
+    <t>Q_āśrāddhe</t>
+  </si>
+  <si>
+    <t>Q_śrāddhe</t>
+  </si>
+  <si>
+    <t>Śrī</t>
+  </si>
+  <si>
+    <t>I_śri</t>
+  </si>
+  <si>
+    <t>I_buddha`</t>
+  </si>
+  <si>
+    <t>Ñäkta;Ksär</t>
+  </si>
+  <si>
+    <t>Prār;Kñuk</t>
+  </si>
+  <si>
+    <t>Kñuk;Omälă</t>
+  </si>
+  <si>
+    <t>Q_truṅkäz</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>W_truṅkă</t>
+  </si>
+  <si>
+    <t>I_marśkaṃ</t>
+  </si>
+  <si>
+    <t>don’t anymore!</t>
+  </si>
+  <si>
+    <t>I_mar</t>
+  </si>
+  <si>
+    <t>I_śkan</t>
+  </si>
+  <si>
+    <t>W_zukāl</t>
+  </si>
+  <si>
+    <t>S_pintwātik</t>
+  </si>
+  <si>
+    <t>mendicant</t>
+  </si>
+  <si>
+    <t>W_pintwāt</t>
+  </si>
+  <si>
+    <t>M_nasäm</t>
+  </si>
+  <si>
+    <t>C_śriñkät</t>
+  </si>
+  <si>
+    <t>Kāsäwă</t>
+  </si>
+  <si>
+    <t>Riṣak;Kāsäwă</t>
+  </si>
+  <si>
+    <t>full brother</t>
+  </si>
+  <si>
+    <t>full sister</t>
+  </si>
+  <si>
+    <t>long ago</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>be happy</t>
+  </si>
+  <si>
+    <t>be glad</t>
+  </si>
+  <si>
+    <t>Ṣomă</t>
+  </si>
+  <si>
+    <t>Morpheme_1</t>
+  </si>
+  <si>
+    <t>Morpheme_2</t>
+  </si>
+  <si>
+    <t>Prār;Kṣur</t>
+  </si>
+  <si>
+    <t>I_ynālek</t>
+  </si>
+  <si>
+    <t>elsewhere</t>
+  </si>
+  <si>
+    <t>W_wrassi</t>
+  </si>
+  <si>
+    <t>R_waro</t>
+  </si>
+  <si>
+    <t>stinky</t>
+  </si>
+  <si>
+    <t>R_warom</t>
+  </si>
+  <si>
+    <t>M_walāṃ</t>
+  </si>
+  <si>
+    <t>tent?</t>
+  </si>
+  <si>
+    <t>V_vāl</t>
+  </si>
+  <si>
+    <t>R_tukrinu</t>
+  </si>
+  <si>
+    <t>W_täqäräy</t>
+  </si>
+  <si>
+    <t>covered in clay</t>
+  </si>
+  <si>
+    <t>I_atäṅkac</t>
+  </si>
+  <si>
+    <t>to a hold</t>
+  </si>
+  <si>
+    <t>R_märkärnu</t>
+  </si>
+  <si>
+    <t>muddy</t>
+  </si>
+  <si>
+    <t>W_märkär</t>
+  </si>
+  <si>
+    <t>I_apärkär</t>
+  </si>
+  <si>
+    <t>at length</t>
+  </si>
+  <si>
+    <t>Q_pärkäră</t>
+  </si>
+  <si>
+    <t>without permission</t>
+  </si>
+  <si>
+    <t>V_pälāk</t>
+  </si>
+  <si>
+    <t>I_aplākät</t>
+  </si>
+  <si>
+    <t>Kloz</t>
+  </si>
+  <si>
     <t>N_vä</t>
-  </si>
-  <si>
-    <t>V_v`les</t>
-  </si>
-  <si>
-    <t>V_v`ras</t>
-  </si>
-  <si>
-    <t>K_v`är</t>
-  </si>
-  <si>
-    <t>V_säqă</t>
-  </si>
-  <si>
-    <t>V_klop</t>
-  </si>
-  <si>
-    <t>W_klop</t>
-  </si>
-  <si>
-    <t>M_pärśari</t>
-  </si>
-  <si>
-    <t>wrinkle</t>
-  </si>
-  <si>
-    <t>V_zäyg</t>
-  </si>
-  <si>
-    <t>potter</t>
-  </si>
-  <si>
-    <t>Q_śolassu</t>
-  </si>
-  <si>
-    <t>W_klyu</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Q_kälywāz</t>
-  </si>
-  <si>
-    <t>Kñuk</t>
-  </si>
-  <si>
-    <t>Pälzäk</t>
-  </si>
-  <si>
-    <t>Lānt</t>
-  </si>
-  <si>
-    <t>Riṣak</t>
-  </si>
-  <si>
-    <t>W_semśu</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>watcher</t>
-  </si>
-  <si>
-    <t>S_lyāk</t>
-  </si>
-  <si>
-    <t>Q_päśră</t>
-  </si>
-  <si>
-    <t>I_lokă</t>
-  </si>
-  <si>
-    <t>I_lokeṃ</t>
-  </si>
-  <si>
-    <t>I_kāzekeṃ</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>I_kāze</t>
-  </si>
-  <si>
-    <t>X_ālamwäc</t>
-  </si>
-  <si>
-    <t>S_kāpñe</t>
-  </si>
-  <si>
-    <t>W_yetwe</t>
-  </si>
-  <si>
-    <t>W_käλme</t>
-  </si>
-  <si>
-    <t>n?</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>m?</t>
-  </si>
-  <si>
-    <t>roaring</t>
-  </si>
-  <si>
-    <t>R_kaśśi</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>W_kaṣt</t>
-  </si>
-  <si>
-    <t>ANIM2</t>
-  </si>
-  <si>
-    <t>Q_kāmärwāz</t>
-  </si>
-  <si>
-    <t>endowed</t>
-  </si>
-  <si>
-    <t>I_kāmăr</t>
-  </si>
-  <si>
-    <t>C_pracăr</t>
-  </si>
-  <si>
-    <t>C_kāzpracar</t>
-  </si>
-  <si>
-    <t>M_kärkṣiṃ</t>
-  </si>
-  <si>
-    <t>Q_käryezwāz</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>Ywār</t>
-  </si>
-  <si>
-    <t>Kñuk;Pälzäk</t>
-  </si>
-  <si>
-    <t>Q_tampewāz</t>
-  </si>
-  <si>
-    <t>Q_wärcezwāz</t>
-  </si>
-  <si>
-    <t>I_ṣleṃ</t>
-  </si>
-  <si>
-    <t>uphill</t>
-  </si>
-  <si>
-    <t>M_ṣula</t>
-  </si>
-  <si>
-    <t>Indri</t>
-  </si>
-  <si>
-    <t>Asurā</t>
-  </si>
-  <si>
-    <t>V_läq</t>
-  </si>
-  <si>
-    <t>S_amokäz</t>
-  </si>
-  <si>
-    <t>W_amok</t>
-  </si>
-  <si>
-    <t>S_ṣñaṣṣe</t>
-  </si>
-  <si>
-    <t>relative</t>
-  </si>
-  <si>
-    <t>Q_ṣñassu</t>
-  </si>
-  <si>
-    <t>cupid</t>
-  </si>
-  <si>
-    <t>S_zek</t>
-  </si>
-  <si>
-    <t>I_śpālmeṃ</t>
-  </si>
-  <si>
-    <t>W_wmānt</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>V_wäm</t>
-  </si>
-  <si>
-    <t>W_sepal</t>
-  </si>
-  <si>
-    <t>ointment</t>
-  </si>
-  <si>
-    <t>V_säyp</t>
-  </si>
-  <si>
-    <t>M_pokeṃ</t>
-  </si>
-  <si>
-    <t>bracelet</t>
-  </si>
-  <si>
-    <t>f?</t>
-  </si>
-  <si>
-    <t>D_poke</t>
-  </si>
-  <si>
-    <t>M_prāriṃ</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>W_prār</t>
-  </si>
-  <si>
-    <t>S_waco</t>
-  </si>
-  <si>
-    <t>soldier</t>
-  </si>
-  <si>
-    <t>W_wacă</t>
-  </si>
-  <si>
-    <t>S_sāntkenu</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>W_sāntäkă</t>
-  </si>
-  <si>
-    <t>M_yokmă</t>
-  </si>
-  <si>
-    <t>gate-keepr</t>
-  </si>
-  <si>
-    <t>S_yokmenu</t>
-  </si>
-  <si>
-    <t>Omälă</t>
-  </si>
-  <si>
-    <t>Q_wärceznu</t>
-  </si>
-  <si>
-    <t>deficient</t>
-  </si>
-  <si>
-    <t>R_wsi</t>
-  </si>
-  <si>
-    <t>golden</t>
-  </si>
-  <si>
-    <t>Wram</t>
-  </si>
-  <si>
-    <t>W_krase</t>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>V_gärs</t>
-  </si>
-  <si>
-    <t>W_rote</t>
-  </si>
-  <si>
-    <t>paints</t>
-  </si>
-  <si>
-    <t>R_śāñinu</t>
-  </si>
-  <si>
-    <t>W_śāñi</t>
-  </si>
-  <si>
-    <t>V_wañi</t>
-  </si>
-  <si>
-    <t>W_wañi</t>
-  </si>
-  <si>
-    <t>R_wañinu</t>
-  </si>
-  <si>
-    <t>pleasant</t>
-  </si>
-  <si>
-    <t>I_letkār</t>
-  </si>
-  <si>
-    <t>V_läytk</t>
-  </si>
-  <si>
-    <t>separately</t>
-  </si>
-  <si>
-    <t>I_letäk</t>
-  </si>
-  <si>
-    <t>INDECL2</t>
-  </si>
-  <si>
-    <t>W_omlyi</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>Q_omälă</t>
-  </si>
-  <si>
-    <t>Q_sᵤkassu</t>
-  </si>
-  <si>
-    <t>Q_āmānwāz</t>
-  </si>
-  <si>
-    <t>arrogant</t>
-  </si>
-  <si>
-    <t>W_āmān</t>
-  </si>
-  <si>
-    <t>W_cämpäl</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>Q_enzassu</t>
-  </si>
-  <si>
-    <t>greedy?</t>
-  </si>
-  <si>
-    <t>Pälzäk;Kñuk</t>
-  </si>
-  <si>
-    <t>I_kārmeṃ</t>
-  </si>
-  <si>
-    <t>directly</t>
-  </si>
-  <si>
-    <t>I_kārme</t>
-  </si>
-  <si>
-    <t>W_lake</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>V_läk</t>
-  </si>
-  <si>
-    <t>V_mänt</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>Q_māntälwāz</t>
-  </si>
-  <si>
-    <t>Q_nākmasu</t>
-  </si>
-  <si>
-    <t>reproachable</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>W_orkäm</t>
-  </si>
-  <si>
-    <t>R_orkämnu</t>
-  </si>
-  <si>
-    <t>Q_pkäm</t>
-  </si>
-  <si>
-    <t>digesting</t>
-  </si>
-  <si>
-    <t>K_bäk</t>
-  </si>
-  <si>
-    <t>W_potal</t>
-  </si>
-  <si>
-    <t>Q_potarṣke</t>
-  </si>
-  <si>
-    <t>flattering</t>
-  </si>
-  <si>
-    <t>Q_proṣam</t>
-  </si>
-  <si>
-    <t>I_ysalu</t>
-  </si>
-  <si>
-    <t>I_salu</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>unlawfullness</t>
-  </si>
-  <si>
-    <t>sne</t>
-  </si>
-  <si>
-    <t>W_păl</t>
-  </si>
-  <si>
-    <t>I_snepal</t>
-  </si>
-  <si>
-    <t>W_wras</t>
-  </si>
-  <si>
-    <t>R_yoṣmoṣnu</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>I_yoṣmoṣ</t>
-  </si>
-  <si>
-    <t>W_yog</t>
-  </si>
-  <si>
-    <t>hairy</t>
-  </si>
-  <si>
-    <t>Q_yokäz</t>
-  </si>
-  <si>
-    <t>Pälzäk;Kalpă</t>
-  </si>
-  <si>
-    <t>Q_kipsu</t>
-  </si>
-  <si>
-    <t>W_kip</t>
-  </si>
-  <si>
-    <t>Pälzäk;Kṣur</t>
-  </si>
-  <si>
-    <t>Anăpr</t>
-  </si>
-  <si>
-    <t>Ṣurmă</t>
-  </si>
-  <si>
-    <t>Ac</t>
-  </si>
-  <si>
-    <t>P_änzaṃ</t>
-  </si>
-  <si>
-    <t>Sewā</t>
-  </si>
-  <si>
-    <t>Q_āśrāddhe</t>
-  </si>
-  <si>
-    <t>Q_śrāddhe</t>
-  </si>
-  <si>
-    <t>Śrī</t>
-  </si>
-  <si>
-    <t>I_śri</t>
-  </si>
-  <si>
-    <t>I_buddha`</t>
-  </si>
-  <si>
-    <t>Ñäkta;Ksär</t>
-  </si>
-  <si>
-    <t>Prār;Kñuk</t>
-  </si>
-  <si>
-    <t>Kñuk;Omälă</t>
-  </si>
-  <si>
-    <t>Q_truṅkäz</t>
-  </si>
-  <si>
-    <t>hollow</t>
-  </si>
-  <si>
-    <t>W_truṅkă</t>
-  </si>
-  <si>
-    <t>I_marśkaṃ</t>
-  </si>
-  <si>
-    <t>don’t anymore!</t>
-  </si>
-  <si>
-    <t>I_mar</t>
-  </si>
-  <si>
-    <t>I_śkan</t>
-  </si>
-  <si>
-    <t>W_zukāl</t>
-  </si>
-  <si>
-    <t>S_pintwātik</t>
-  </si>
-  <si>
-    <t>mendicant</t>
-  </si>
-  <si>
-    <t>W_pintwāt</t>
-  </si>
-  <si>
-    <t>M_nasäm</t>
-  </si>
-  <si>
-    <t>C_śriñkät</t>
-  </si>
-  <si>
-    <t>Kāsäwă</t>
-  </si>
-  <si>
-    <t>Riṣak;Kāsäwă</t>
-  </si>
-  <si>
-    <t>full brother</t>
-  </si>
-  <si>
-    <t>full sister</t>
-  </si>
-  <si>
-    <t>long ago</t>
-  </si>
-  <si>
-    <t>each other</t>
-  </si>
-  <si>
-    <t>be happy</t>
-  </si>
-  <si>
-    <t>be glad</t>
-  </si>
-  <si>
-    <t>Ṣomă</t>
-  </si>
-  <si>
-    <t>Morpheme_1</t>
-  </si>
-  <si>
-    <t>Morpheme_2</t>
-  </si>
-  <si>
-    <t>Prār;Kṣur</t>
-  </si>
-  <si>
-    <t>I_ynālek</t>
-  </si>
-  <si>
-    <t>elsewhere</t>
-  </si>
-  <si>
-    <t>W_wrassi</t>
-  </si>
-  <si>
-    <t>R_waro</t>
-  </si>
-  <si>
-    <t>stinky</t>
-  </si>
-  <si>
-    <t>R_warom</t>
-  </si>
-  <si>
-    <t>M_walāṃ</t>
-  </si>
-  <si>
-    <t>tent?</t>
-  </si>
-  <si>
-    <t>V_vāl</t>
   </si>
 </sst>
 </file>
@@ -2707,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2731,30 +2773,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -2776,30 +2818,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -2810,13 +2852,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -2827,10 +2869,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
@@ -2839,15 +2881,15 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>223</v>
@@ -2858,13 +2900,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
@@ -2872,13 +2914,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>67</v>
@@ -2889,30 +2931,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>67</v>
@@ -2923,13 +2965,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>67</v>
@@ -2949,7 +2991,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2982,30 +3024,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>67</v>
@@ -3016,13 +3058,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>67</v>
@@ -3030,30 +3072,30 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -3064,33 +3106,33 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -3104,21 +3146,24 @@
         <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>169</v>
@@ -3126,13 +3171,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>169</v>
@@ -3140,16 +3185,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3157,7 +3202,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>108</v>
@@ -3168,19 +3213,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3191,10 +3236,10 @@
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
@@ -3208,7 +3253,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>37</v>
@@ -3217,10 +3262,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>174</v>
@@ -3230,18 +3275,18 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>37</v>
@@ -3265,10 +3310,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>75</v>
@@ -3280,7 +3325,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -3294,13 +3339,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>82</v>
@@ -3324,33 +3369,33 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
@@ -3364,24 +3409,24 @@
         <v>168</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
@@ -3390,38 +3435,38 @@
         <v>82</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>82</v>
@@ -3430,16 +3475,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3456,18 +3501,18 @@
         <v>47</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>47</v>
@@ -3489,30 +3534,30 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>47</v>
@@ -3521,27 +3566,30 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -3549,13 +3597,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>47</v>
@@ -3589,7 +3637,7 @@
         <v>47</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3606,18 +3654,18 @@
         <v>47</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>47</v>
@@ -3637,12 +3685,12 @@
         <v>47</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>170</v>
@@ -3654,15 +3702,15 @@
         <v>47</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>150</v>
@@ -3685,21 +3733,21 @@
         <v>47</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
@@ -3707,30 +3755,30 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>47</v>
@@ -3750,18 +3798,18 @@
         <v>47</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>47</v>
@@ -3772,70 +3820,70 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3852,7 +3900,7 @@
         <v>47</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3869,10 +3917,10 @@
         <v>47</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3903,18 +3951,18 @@
         <v>47</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>47</v>
@@ -3922,13 +3970,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>47</v>
@@ -3948,35 +3996,35 @@
         <v>47</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>234</v>
+        <v>764</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>47</v>
@@ -3996,18 +4044,18 @@
         <v>47</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>47</v>
@@ -4018,13 +4066,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>47</v>
@@ -4032,7 +4080,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>74</v>
@@ -4044,35 +4092,35 @@
         <v>47</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>47</v>
@@ -4080,13 +4128,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>47</v>
@@ -4094,30 +4142,30 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>47</v>
@@ -4125,30 +4173,30 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>47</v>
@@ -4168,18 +4216,18 @@
         <v>47</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>180</v>
@@ -4190,13 +4238,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>47</v>
@@ -4204,13 +4252,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>47</v>
@@ -4219,35 +4267,35 @@
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>47</v>
@@ -4255,30 +4303,30 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>47</v>
@@ -4286,30 +4334,30 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>47</v>
@@ -4320,30 +4368,30 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>47</v>
@@ -4354,13 +4402,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>47</v>
@@ -4368,13 +4416,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>47</v>
@@ -4382,22 +4430,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4430,13 +4478,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
@@ -4444,13 +4492,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>161</v>
@@ -4458,13 +4506,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>161</v>
@@ -4484,18 +4532,21 @@
         <v>161</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>161</v>
@@ -4503,13 +4554,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>161</v>
@@ -4518,44 +4569,44 @@
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4572,7 +4623,7 @@
         <v>112</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4591,13 +4642,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>112</v>
@@ -4608,13 +4659,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>112</v>
@@ -4625,13 +4676,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>112</v>
@@ -4639,10 +4690,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>93</v>
@@ -4653,13 +4704,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>112</v>
@@ -4681,7 +4732,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>113</v>
@@ -4693,24 +4744,24 @@
         <v>112</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4732,13 +4783,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>112</v>
@@ -4761,18 +4812,18 @@
         <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>112</v>
@@ -4780,7 +4831,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>228</v>
@@ -4792,15 +4843,15 @@
         <v>112</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>69</v>
@@ -4839,47 +4890,47 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>112</v>
@@ -4887,13 +4938,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>112</v>
@@ -4901,13 +4952,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>112</v>
@@ -4915,13 +4966,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>112</v>
@@ -4929,13 +4980,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>59</v>
@@ -4943,13 +4994,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>59</v>
@@ -4957,13 +5008,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>59</v>
@@ -4971,30 +5022,30 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>59</v>
@@ -5002,13 +5053,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>59</v>
@@ -5016,13 +5067,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>59</v>
@@ -5030,13 +5081,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>59</v>
@@ -5044,38 +5095,38 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>175</v>
@@ -5087,18 +5138,18 @@
         <v>187</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>187</v>
@@ -5106,13 +5157,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>187</v>
@@ -5120,16 +5171,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>544</v>
+        <v>767</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>63</v>
@@ -5137,13 +5188,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>132</v>
@@ -5151,13 +5202,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>132</v>
@@ -5165,30 +5216,30 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>132</v>
@@ -5216,13 +5267,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>132</v>
@@ -5242,55 +5293,55 @@
         <v>51</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5304,12 +5355,12 @@
         <v>93</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>90</v>
@@ -5318,46 +5369,46 @@
         <v>89</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="D166" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>25</v>
@@ -5379,10 +5430,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>139</v>
@@ -5393,13 +5444,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>25</v>
@@ -5447,7 +5498,7 @@
         <v>25</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5466,27 +5517,27 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>41</v>
@@ -5494,13 +5545,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>41</v>
@@ -5508,13 +5559,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>41</v>
@@ -5536,19 +5587,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5595,10 +5646,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>73</v>
@@ -5609,13 +5660,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>41</v>
@@ -5623,13 +5674,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
@@ -5643,7 +5694,7 @@
         <v>156</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>41</v>
@@ -5651,10 +5702,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>196</v>
@@ -5693,13 +5744,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>41</v>
@@ -5707,13 +5758,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>41</v>
@@ -5721,13 +5772,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>41</v>
@@ -5777,19 +5828,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5808,10 +5859,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>230</v>
@@ -5822,10 +5873,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>227</v>
@@ -5836,13 +5887,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>154</v>
@@ -5850,13 +5901,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>154</v>
@@ -5878,13 +5929,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>154</v>
@@ -5892,13 +5943,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>154</v>
@@ -5906,13 +5957,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>154</v>
@@ -5920,13 +5971,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>154</v>
@@ -5934,13 +5985,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>154</v>
@@ -5948,13 +5999,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>154</v>
@@ -5962,13 +6013,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>172</v>
@@ -5990,13 +6041,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>172</v>
@@ -6004,13 +6055,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>172</v>
@@ -6018,13 +6069,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>172</v>
@@ -6032,13 +6083,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>172</v>
@@ -6046,10 +6097,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>122</v>
@@ -6060,13 +6111,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>172</v>
@@ -6088,10 +6139,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>173</v>
@@ -6102,13 +6153,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>172</v>
@@ -6133,7 +6184,7 @@
         <v>195</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>194</v>
@@ -6144,13 +6195,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>26</v>
@@ -6172,10 +6223,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>230</v>
@@ -6186,13 +6237,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="C227" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>26</v>
@@ -6200,10 +6251,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>174</v>
@@ -6214,13 +6265,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="C229" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>26</v>
@@ -6228,13 +6279,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>26</v>
@@ -6256,13 +6307,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C232" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>26</v>
@@ -6270,13 +6321,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>115</v>
@@ -6298,13 +6349,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>115</v>
@@ -6312,27 +6363,27 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>230</v>
@@ -6343,10 +6394,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>56</v>
@@ -6357,13 +6408,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>115</v>
@@ -6371,13 +6422,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="C240" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>115</v>
@@ -6399,13 +6450,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>115</v>
@@ -6413,13 +6464,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C243" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>115</v>
@@ -6427,13 +6478,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>115</v>
@@ -6441,13 +6492,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>35</v>
@@ -6483,7 +6534,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>165</v>
@@ -6497,13 +6548,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>35</v>
@@ -6511,10 +6562,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>28</v>
@@ -6525,13 +6576,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>35</v>
@@ -6559,7 +6610,7 @@
         <v>34</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>35</v>
@@ -6567,13 +6618,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>35</v>
@@ -6581,13 +6632,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
@@ -6595,13 +6646,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>35</v>
@@ -6609,13 +6660,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>35</v>
@@ -6623,72 +6674,72 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="D258" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="D259" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="C262" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>132</v>
@@ -6697,49 +6748,49 @@
         <v>3</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="G263" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>187</v>
@@ -6747,13 +6798,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>26</v>
@@ -6761,13 +6812,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>26</v>
@@ -6775,16 +6826,86 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DABEFA8-DDD4-7D43-A4AE-C11584F72545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1940644-35F0-F846-87B0-FC5E2D77C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -1721,9 +1721,6 @@
     <t>Riṣak</t>
   </si>
   <si>
-    <t>W_semśu</t>
-  </si>
-  <si>
     <t>protection</t>
   </si>
   <si>
@@ -2340,6 +2337,9 @@
   </si>
   <si>
     <t>N_vä</t>
+  </si>
+  <si>
+    <t>W_semäśśu</t>
   </si>
 </sst>
 </file>
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,16 +2773,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>523</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
@@ -2824,7 +2824,7 @@
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>67</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>520</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>139</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>552</v>
@@ -3024,30 +3024,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>67</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>475</v>
@@ -3115,24 +3115,24 @@
         <v>474</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>482</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -3146,24 +3146,24 @@
         <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>169</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>169</v>
@@ -3185,16 +3185,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3202,7 +3202,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>108</v>
@@ -3225,7 +3225,7 @@
         <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3325,7 +3325,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -3381,21 +3381,21 @@
         <v>82</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
@@ -3415,7 +3415,7 @@
         <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>558</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>166</v>
@@ -3452,15 +3452,15 @@
         <v>82</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
@@ -3475,16 +3475,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3501,7 +3501,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3546,7 +3546,7 @@
         <v>47</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3583,13 +3583,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>47</v>
@@ -3637,7 +3637,7 @@
         <v>47</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3654,18 +3654,18 @@
         <v>47</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>47</v>
@@ -3685,7 +3685,7 @@
         <v>47</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
         <v>47</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3733,10 +3733,10 @@
         <v>47</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>47</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3803,13 +3803,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>47</v>
@@ -3832,7 +3832,7 @@
         <v>47</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3849,7 +3849,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3883,7 +3883,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>47</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3917,10 +3917,10 @@
         <v>47</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>47</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3996,7 +3996,7 @@
         <v>47</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4007,13 +4007,13 @@
         <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>47</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,10 +4066,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>491</v>
@@ -4092,7 +4092,7 @@
         <v>47</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4109,7 +4109,7 @@
         <v>47</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4185,7 +4185,7 @@
         <v>47</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4216,10 +4216,10 @@
         <v>47</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>47</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>471</v>
@@ -4346,7 +4346,7 @@
         <v>47</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>47</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4442,10 +4442,10 @@
         <v>47</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4478,13 +4478,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
@@ -4532,18 +4532,18 @@
         <v>161</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>374</v>
@@ -4569,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4586,27 +4586,27 @@
         <v>161</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>112</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>550</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>112</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>113</v>
@@ -4744,7 +4744,7 @@
         <v>112</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
         <v>112</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
         <v>112</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -4938,7 +4938,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>472</v>
@@ -4966,13 +4966,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>112</v>
@@ -4980,13 +4980,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>59</v>
@@ -4994,13 +4994,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>59</v>
@@ -5008,13 +5008,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>59</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>362</v>
@@ -5039,13 +5039,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>59</v>
@@ -5053,13 +5053,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>59</v>
@@ -5107,21 +5107,21 @@
         <v>59</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5138,7 +5138,7 @@
         <v>187</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5171,16 +5171,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>63</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>265</v>
@@ -5228,7 +5228,7 @@
         <v>132</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5310,18 +5310,18 @@
         <v>518</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>518</v>
@@ -5394,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>518</v>
@@ -5498,7 +5498,7 @@
         <v>25</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5517,7 +5517,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>526</v>
@@ -5526,15 +5526,15 @@
         <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>520</v>
@@ -5545,13 +5545,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>41</v>
@@ -5593,13 +5593,13 @@
         <v>298</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5646,10 +5646,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>73</v>
@@ -5674,13 +5674,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>496</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>41</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>196</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>376</v>
@@ -5840,7 +5840,7 @@
         <v>154</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -5873,10 +5873,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>227</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>496</v>
@@ -5943,13 +5943,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>154</v>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>154</v>
@@ -6013,13 +6013,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>172</v>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>172</v>
@@ -6083,13 +6083,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>172</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>122</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>255</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>335</v>
@@ -6184,7 +6184,7 @@
         <v>195</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>194</v>
@@ -6279,13 +6279,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>26</v>
@@ -6375,7 +6375,7 @@
         <v>115</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -6450,10 +6450,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>350</v>
@@ -6492,13 +6492,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>35</v>
@@ -6618,13 +6618,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>35</v>
@@ -6632,13 +6632,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>496</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>35</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="C256" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>35</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>334</v>
@@ -6705,7 +6705,7 @@
         <v>546</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>371</v>
@@ -6716,13 +6716,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>531</v>
@@ -6748,32 +6748,32 @@
         <v>3</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="G263" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>62</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>156</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>545</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>313</v>
@@ -6826,13 +6826,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>112</v>
@@ -6840,13 +6840,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>35</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>24</v>
@@ -6868,13 +6868,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>35</v>
@@ -6882,13 +6882,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>518</v>
@@ -6896,13 +6896,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>25</v>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1940644-35F0-F846-87B0-FC5E2D77C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47B03-7626-804B-AE4C-405E892FF4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="770">
   <si>
     <t>Shape</t>
   </si>
@@ -2340,6 +2340,12 @@
   </si>
   <si>
     <t>W_semäśśu</t>
+  </si>
+  <si>
+    <t>W_spārtv</t>
+  </si>
+  <si>
+    <t>turning?</t>
   </si>
 </sst>
 </file>
@@ -2749,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="175" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6908,6 +6914,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G263">
     <sortCondition ref="D237:D263"/>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C47B03-7626-804B-AE4C-405E892FF4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F922299-0396-4141-9338-69C92C7173ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="772">
   <si>
     <t>Shape</t>
   </si>
@@ -2346,6 +2346,12 @@
   </si>
   <si>
     <t>turning?</t>
+  </si>
+  <si>
+    <t>Q_zpokaz</t>
+  </si>
+  <si>
+    <t>tasty</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="175" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6928,6 +6934,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G263">
     <sortCondition ref="D237:D263"/>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F922299-0396-4141-9338-69C92C7173ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CBB58-E53D-6445-9E57-FBBF2CFBAF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="770">
   <si>
     <t>Shape</t>
   </si>
@@ -2253,12 +2253,6 @@
   </si>
   <si>
     <t>Ṣomă</t>
-  </si>
-  <si>
-    <t>Morpheme_1</t>
-  </si>
-  <si>
-    <t>Morpheme_2</t>
   </si>
   <si>
     <t>Prār;Kṣur</t>
@@ -2763,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF76C2B-797E-2544-85E2-CF60CE11F59B}">
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2784,14 +2778,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>740</v>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>575</v>
@@ -4019,7 +4013,7 @@
         <v>235</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>47</v>
@@ -4547,12 +4541,12 @@
         <v>574</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>561</v>
@@ -4601,7 +4595,7 @@
         <v>574</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,7 +5186,7 @@
         <v>62</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>63</v>
@@ -6782,10 +6776,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>62</v>
@@ -6796,7 +6790,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>156</v>
@@ -6810,10 +6804,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>545</v>
@@ -6824,10 +6818,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>313</v>
@@ -6838,13 +6832,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>112</v>
@@ -6852,13 +6846,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>35</v>
@@ -6866,10 +6860,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>24</v>
@@ -6880,13 +6874,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>35</v>
@@ -6894,13 +6888,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>518</v>
@@ -6908,13 +6902,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>25</v>
@@ -6922,10 +6916,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>386</v>
@@ -6936,10 +6930,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>379</v>

--- a/data/lexemes.xlsx
+++ b/data/lexemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CBB58-E53D-6445-9E57-FBBF2CFBAF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DDBF00-5B8D-164E-87E4-496589B68B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="2500" windowWidth="25700" windowHeight="14000" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
@@ -2758,7 +2758,7 @@
   <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
